--- a/Data/2023/Volby 2023.xlsx
+++ b/Data/2023/Volby 2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/PROJEKT/Data/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/Projekt Git/PDV-Slovak-election-prediction/data/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB38723-6D2F-4388-B4E4-00B1A9B84F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2955" windowWidth="28800" windowHeight="15345" xr2:uid="{83CFABA9-AFD1-4F84-BA63-B107FB8274FA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13455" windowHeight="20985" xr2:uid="{83CFABA9-AFD1-4F84-BA63-B107FB8274FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/2023/Volby 2023.xlsx
+++ b/Data/2023/Volby 2023.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB38723-6D2F-4388-B4E4-00B1A9B84F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="13455" windowHeight="20985" xr2:uid="{83CFABA9-AFD1-4F84-BA63-B107FB8274FA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12750" windowHeight="20985" xr2:uid="{83CFABA9-AFD1-4F84-BA63-B107FB8274FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
